--- a/results/mp/logistic/corona/confidence/210/desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.15/avg_0.003_scores.xlsx
@@ -40,30 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -88,30 +88,33 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -124,27 +127,27 @@
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
@@ -154,61 +157,58 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8918918918918919</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
         <v>33</v>
@@ -653,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -685,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.868421052631579</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8561643835616438</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K8">
-        <v>0.9190600522193212</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7222222222222222</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
@@ -1035,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5608465608465608</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8943661971830986</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4883720930232558</v>
+        <v>0.5174418604651163</v>
       </c>
       <c r="C12">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D12">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4509803921568628</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4406779661016949</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K14">
-        <v>0.890625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1259,13 @@
         <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.890625</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2147651006711409</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8867924528301887</v>
+        <v>0.88125</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.08055555555555556</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L17">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="M17">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1385,13 @@
         <v>39</v>
       </c>
       <c r="K18">
-        <v>0.8658536585365854</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,13 +1411,13 @@
         <v>40</v>
       </c>
       <c r="K19">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1437,13 +1437,13 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1489,13 +1489,13 @@
         <v>43</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1515,13 +1515,13 @@
         <v>44</v>
       </c>
       <c r="K23">
-        <v>0.8148148148148148</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1541,13 +1541,13 @@
         <v>45</v>
       </c>
       <c r="K24">
-        <v>0.8125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1567,13 +1567,13 @@
         <v>46</v>
       </c>
       <c r="K25">
-        <v>0.8095238095238095</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1593,13 +1593,13 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1619,13 +1619,13 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>0.78</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1645,13 +1645,13 @@
         <v>49</v>
       </c>
       <c r="K28">
-        <v>0.7617647058823529</v>
+        <v>0.7411764705882353</v>
       </c>
       <c r="L28">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M28">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1671,13 +1671,13 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>0.7428571428571429</v>
+        <v>0.72</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1697,13 +1697,13 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>0.735593220338983</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1723,13 +1723,13 @@
         <v>52</v>
       </c>
       <c r="K31">
-        <v>0.7112970711297071</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1749,13 +1749,13 @@
         <v>53</v>
       </c>
       <c r="K32">
-        <v>0.7037037037037037</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1775,13 +1775,13 @@
         <v>54</v>
       </c>
       <c r="K33">
-        <v>0.6808510638297872</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1801,13 +1801,13 @@
         <v>55</v>
       </c>
       <c r="K34">
-        <v>0.6785714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1827,13 +1827,13 @@
         <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6461538461538462</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1853,13 +1853,13 @@
         <v>57</v>
       </c>
       <c r="K36">
-        <v>0.6363636363636364</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1879,13 +1879,13 @@
         <v>58</v>
       </c>
       <c r="K37">
-        <v>0.6292134831460674</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L37">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1905,13 +1905,13 @@
         <v>59</v>
       </c>
       <c r="K38">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1931,13 +1931,13 @@
         <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5476190476190477</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1957,13 +1957,13 @@
         <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5294117647058824</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1983,13 +1983,13 @@
         <v>62</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L41">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2009,13 +2009,13 @@
         <v>63</v>
       </c>
       <c r="K42">
-        <v>0.4657534246575342</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2035,7 +2035,7 @@
         <v>64</v>
       </c>
       <c r="K43">
-        <v>0.4222222222222222</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L43">
         <v>19</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
